--- a/WOW settings.xlsx
+++ b/WOW settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robmorse/GitHub/MIT_Prodigy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695EFF12-862E-8B49-AE9C-9F38ACAE2BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFC4489-BD68-B34C-A59F-A06A7FEE2FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="500" windowWidth="26080" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="155">
   <si>
     <t>Event ID</t>
   </si>
@@ -156,18 +156,9 @@
     <t>Shipping Stickers</t>
   </si>
   <si>
-    <t>Spider Blasting</t>
-  </si>
-  <si>
     <t>Story</t>
   </si>
   <si>
-    <t>Talking creatures</t>
-  </si>
-  <si>
-    <t>Match the symbols</t>
-  </si>
-  <si>
     <t>Dragon Battle</t>
   </si>
   <si>
@@ -505,6 +496,9 @@
   </si>
   <si>
     <t>Think about doing this a different way</t>
+  </si>
+  <si>
+    <t>Runes Spell</t>
   </si>
 </sst>
 </file>
@@ -829,8 +823,8 @@
   </sheetPr>
   <dimension ref="A1:K1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -854,28 +848,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -890,19 +884,19 @@
         <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F2" s="5">
         <v>70</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2"/>
@@ -919,19 +913,19 @@
         <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F3" s="5">
         <v>70</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="2"/>
@@ -948,19 +942,19 @@
         <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F4" s="5">
         <v>70</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
@@ -977,19 +971,19 @@
         <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F5" s="5">
         <v>70</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
@@ -1006,19 +1000,19 @@
         <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F6" s="5">
         <v>70</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
@@ -1044,10 +1038,10 @@
         <v>70</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
@@ -1073,14 +1067,14 @@
         <v>70</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -1095,23 +1089,23 @@
         <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F9" s="5">
         <v>70</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -1126,23 +1120,23 @@
         <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="5">
         <v>70</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -1154,22 +1148,22 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F11" s="5">
         <v>70</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
@@ -1188,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
@@ -1200,10 +1194,10 @@
         <v>70</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
@@ -1219,26 +1213,26 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F13" s="5">
         <v>70</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -1250,22 +1244,22 @@
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F14" s="5">
         <v>70</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>11</v>
@@ -1280,25 +1274,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F15" s="5">
         <v>70</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -1310,7 +1304,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>13</v>
@@ -1320,10 +1314,10 @@
         <v>70</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>14</v>
@@ -1338,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>15</v>
@@ -1348,10 +1342,10 @@
         <v>70</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
@@ -1367,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>17</v>
@@ -1377,10 +1371,10 @@
         <v>70</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1394,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>18</v>
@@ -1404,10 +1398,10 @@
         <v>70</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
@@ -1423,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>20</v>
@@ -1433,10 +1427,10 @@
         <v>70</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
@@ -1452,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>22</v>
@@ -1462,10 +1456,10 @@
         <v>70</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>23</v>
@@ -1480,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>24</v>
@@ -1490,10 +1484,10 @@
         <v>70</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
@@ -1509,7 +1503,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>26</v>
@@ -1519,10 +1513,10 @@
         <v>70</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
@@ -1538,7 +1532,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>28</v>
@@ -1548,10 +1542,10 @@
         <v>70</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1565,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
@@ -1575,10 +1569,10 @@
         <v>70</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
@@ -1594,7 +1588,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>31</v>
@@ -1604,10 +1598,10 @@
         <v>70</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1621,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>32</v>
@@ -1631,10 +1625,10 @@
         <v>70</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
@@ -1650,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>34</v>
@@ -1660,10 +1654,10 @@
         <v>70</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
@@ -1679,7 +1673,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>37</v>
@@ -1689,10 +1683,10 @@
         <v>70</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -13404,7 +13398,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13417,19 +13411,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -13437,16 +13431,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="9">
         <v>50</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -13454,16 +13448,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="D3" s="9">
         <v>50</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -13471,16 +13465,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D4" s="9">
         <v>50</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -13488,16 +13482,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5" s="9">
         <v>50</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -13505,16 +13499,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="9">
         <v>50</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -13522,16 +13516,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="D7" s="9">
         <v>50</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -13539,16 +13533,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8" s="9">
         <v>50</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -13556,16 +13550,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="9">
         <v>50</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -13573,16 +13567,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="9">
         <v>50</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -13590,16 +13584,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11" s="9">
         <v>95</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -13607,16 +13601,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D12" s="9">
         <v>50</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -13624,16 +13618,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D13" s="9">
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
